--- a/documentation/softeng23-26-presentation_v2.xlsx
+++ b/documentation/softeng23-26-presentation_v2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voudo\Documents\codes\tl ntuaflix\NTUAflix\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voudo\Documents\codes\tl ntuaflix\NTUAflix\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1614893F-1578-4B85-B841-3DEC44190944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858295F7-2F7C-4FE8-897C-A1E525C5EE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{998E27AF-4EE8-5F42-9173-21B426B5D45A}"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="160">
   <si>
     <t>ER/JSON</t>
   </si>
@@ -445,15 +445,6 @@
     <t>dhsufcnq</t>
   </si>
   <si>
-    <t>Αναζήτηση ταινιών και σειρών με βάση το genre</t>
-  </si>
-  <si>
-    <t>Αναζήτηση ταινιών και σειρών με βάση το rating</t>
-  </si>
-  <si>
-    <t>Αναζήτηση ατόμων από τις ταινίες και σειρές με βάση το όνομα</t>
-  </si>
-  <si>
     <t>Χριστοδουλάκης</t>
   </si>
   <si>
@@ -503,6 +494,39 @@
   </si>
   <si>
     <t>03120227</t>
+  </si>
+  <si>
+    <t>Αναζήτηση ταινιών και σειρών με βάση το genre (search by genre)</t>
+  </si>
+  <si>
+    <t>Αναζήτηση ταινιών και σειρών με βάση το rating (search by rating)</t>
+  </si>
+  <si>
+    <t>Αναζήτηση ατόμων από τις ταινίες και σειρές με βάση το όνομα (search people)</t>
+  </si>
+  <si>
+    <t>MySQL</t>
+  </si>
+  <si>
+    <t>Node.js</t>
+  </si>
+  <si>
+    <t>yaml file</t>
+  </si>
+  <si>
+    <t>Next.js/React</t>
+  </si>
+  <si>
+    <t>Node.js/Postman Scripts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Node.js/jest </t>
+  </si>
+  <si>
+    <t>vs code</t>
+  </si>
+  <si>
+    <t>from github</t>
   </si>
 </sst>
 </file>
@@ -768,6 +792,25 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -783,25 +826,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1121,8 +1145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A22FCA-6CEB-864C-9E7D-F12113288542}">
   <dimension ref="B1:AK50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:E22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="97" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1274,16 +1298,16 @@
     </row>
     <row r="5" spans="2:37" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E5" s="14"/>
-      <c r="F5" s="30"/>
+      <c r="F5" s="35"/>
       <c r="G5" s="22" t="str">
         <f>B5</f>
         <v>03120061</v>
@@ -1292,16 +1316,16 @@
     </row>
     <row r="6" spans="2:37" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="F6" s="30"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="22" t="str">
         <f t="shared" ref="G6:G10" si="0">B6</f>
         <v>03120189</v>
@@ -1310,16 +1334,16 @@
     </row>
     <row r="7" spans="2:37" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="17" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E7" s="14"/>
-      <c r="F7" s="30"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>03120098</v>
@@ -1328,16 +1352,16 @@
     </row>
     <row r="8" spans="2:37" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="30"/>
+      <c r="F8" s="35"/>
       <c r="G8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>03120227</v>
@@ -1346,16 +1370,16 @@
     </row>
     <row r="9" spans="2:37" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E9" s="14"/>
-      <c r="F9" s="30"/>
+      <c r="F9" s="35"/>
       <c r="G9" s="22" t="str">
         <f t="shared" si="0"/>
         <v>03120123</v>
@@ -1367,13 +1391,13 @@
         <v>128</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="F10" s="30"/>
+      <c r="F10" s="35"/>
       <c r="G10" s="22" t="str">
         <f t="shared" si="0"/>
         <v>03120890</v>
@@ -1383,18 +1407,18 @@
     <row r="11" spans="2:37" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="F11" s="30"/>
+      <c r="F11" s="35"/>
     </row>
     <row r="12" spans="2:37" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="35"/>
       <c r="AK12" s="25" t="s">
         <v>121</v>
       </c>
@@ -1403,12 +1427,12 @@
       <c r="B13" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="30"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="35"/>
       <c r="AK13" s="25" t="s">
         <v>122</v>
       </c>
@@ -1417,12 +1441,12 @@
       <c r="B14" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="35"/>
       <c r="AK14" s="25" t="s">
         <v>127</v>
       </c>
@@ -1437,11 +1461,11 @@
       <c r="B16" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
+      <c r="C16" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
       <c r="F16" s="21"/>
       <c r="AK16" s="25" t="s">
         <v>123</v>
@@ -1451,11 +1475,11 @@
       <c r="B17" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
+      <c r="C17" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
       <c r="F17" s="21"/>
       <c r="AK17" s="25" t="s">
         <v>124</v>
@@ -1465,11 +1489,11 @@
       <c r="B18" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
+      <c r="C18" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="21"/>
       <c r="AK18" s="25" t="s">
         <v>125</v>
@@ -1483,96 +1507,114 @@
       <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="32"/>
+      <c r="E20" s="37"/>
     </row>
     <row r="21" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B21" s="31" t="s">
+      <c r="B21" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
     </row>
     <row r="22" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
     </row>
     <row r="23" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
+      <c r="C23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
     </row>
     <row r="24" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B24" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
+      <c r="C24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
     </row>
     <row r="25" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B25" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
+      <c r="C25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
     </row>
     <row r="26" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
+      <c r="C26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
     </row>
     <row r="27" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
+      <c r="C27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
     </row>
     <row r="28" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B28" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
+      <c r="C28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
     </row>
     <row r="29" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
     </row>
     <row r="30" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B30" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
+      <c r="C30" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
     </row>
     <row r="31" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B31" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
@@ -1580,17 +1622,21 @@
       <c r="B32" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
+      <c r="C32" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
     </row>
     <row r="33" spans="2:37" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
+      <c r="C33" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
       <c r="H33" s="20"/>
@@ -1628,9 +1674,11 @@
       <c r="B34" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
+      <c r="C34" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
@@ -1668,9 +1716,11 @@
       <c r="B35" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
+      <c r="C35" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
       <c r="H35" s="20"/>
@@ -1705,60 +1755,70 @@
       <c r="AK35" s="4"/>
     </row>
     <row r="36" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B36" s="36" t="s">
+      <c r="B36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="36"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
     </row>
     <row r="37" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B37" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
+      <c r="C37" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
     </row>
     <row r="38" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B38" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
+      <c r="C38" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
     </row>
     <row r="39" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B39" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
+      <c r="C39" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
     </row>
     <row r="40" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
     </row>
     <row r="41" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B41" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
+      <c r="C41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
     </row>
     <row r="42" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
+      <c r="C42" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
       <c r="H42" s="20"/>
@@ -1796,9 +1856,11 @@
       <c r="B43" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
+      <c r="C43" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
       <c r="H43" s="20"/>
@@ -1838,38 +1900,53 @@
       </c>
     </row>
     <row r="46" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
     </row>
     <row r="47" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
     </row>
     <row r="48" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertHyperlinks="0"/>
   <mergeCells count="31">
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F5:F14"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="B46:E50"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="D37:E37"/>
@@ -1886,21 +1963,6 @@
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B46:E50"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F5:F14"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">

--- a/documentation/softeng23-26-presentation_v2.xlsx
+++ b/documentation/softeng23-26-presentation_v2.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\voudo\Documents\codes\tl ntuaflix\NTUAflix\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daphn\Documents\πολυτεχνειο\Μαθήματα\7o εξάμηνο\ΤΛ\Εργασία\NtuaFlix\2o παραδοτέο\NTUAflix\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858295F7-2F7C-4FE8-897C-A1E525C5EE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F31774-217F-4ED8-989E-CADCD9D3F158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{998E27AF-4EE8-5F42-9173-21B426B5D45A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{998E27AF-4EE8-5F42-9173-21B426B5D45A}"/>
   </bookViews>
   <sheets>
     <sheet name="softeng 23" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="161">
   <si>
     <t>ER/JSON</t>
   </si>
@@ -527,6 +527,13 @@
   </si>
   <si>
     <t>from github</t>
+  </si>
+  <si>
+    <t>Στο github στους "Contributors" σε τρια μέλη της ομάδας, αντί να φαίνεται το elXXX ως όνομα, 
+φαίνεται το όνομα του άλλου προφίλ ένω είναι σωστα συνδεδεμένοι με το ιδρυματικό.
+Για το el20061 γίνονται με το όνομα dionadam
+Για το el20123 γίνονταν στην αρχή με το YourName (φαίνεται στα commits)
+Για το el20189 γίνονται με το όνομα DaphneGeorgiadi</t>
   </si>
 </sst>
 </file>
@@ -703,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -800,6 +807,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -830,8 +841,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Υπερ-σύνδεση" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -847,9 +858,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -887,7 +898,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -993,7 +1004,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1135,7 +1146,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1145,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A22FCA-6CEB-864C-9E7D-F12113288542}">
   <dimension ref="B1:AK50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" zoomScale="97" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="97" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1307,7 +1318,7 @@
         <v>135</v>
       </c>
       <c r="E5" s="14"/>
-      <c r="F5" s="35"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="22" t="str">
         <f>B5</f>
         <v>03120061</v>
@@ -1325,7 +1336,7 @@
         <v>137</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="F6" s="35"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="22" t="str">
         <f t="shared" ref="G6:G10" si="0">B6</f>
         <v>03120189</v>
@@ -1343,7 +1354,7 @@
         <v>139</v>
       </c>
       <c r="E7" s="14"/>
-      <c r="F7" s="35"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>03120098</v>
@@ -1361,7 +1372,7 @@
         <v>141</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="35"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>03120227</v>
@@ -1379,7 +1390,7 @@
         <v>143</v>
       </c>
       <c r="E9" s="14"/>
-      <c r="F9" s="35"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="22" t="str">
         <f t="shared" si="0"/>
         <v>03120123</v>
@@ -1397,7 +1408,7 @@
         <v>133</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="F10" s="35"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="22" t="str">
         <f t="shared" si="0"/>
         <v>03120890</v>
@@ -1407,18 +1418,18 @@
     <row r="11" spans="2:37" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="F11" s="35"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="2:37" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
       <c r="AK12" s="25" t="s">
         <v>121</v>
       </c>
@@ -1427,12 +1438,12 @@
       <c r="B13" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
       <c r="AK13" s="25" t="s">
         <v>122</v>
       </c>
@@ -1441,12 +1452,12 @@
       <c r="B14" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
       <c r="AK14" s="25" t="s">
         <v>127</v>
       </c>
@@ -1461,11 +1472,11 @@
       <c r="B16" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="21"/>
       <c r="AK16" s="25" t="s">
         <v>123</v>
@@ -1475,11 +1486,11 @@
       <c r="B17" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="21"/>
       <c r="AK17" s="25" t="s">
         <v>124</v>
@@ -1489,11 +1500,11 @@
       <c r="B18" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="21"/>
       <c r="AK18" s="25" t="s">
         <v>125</v>
@@ -1507,18 +1518,18 @@
       <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="D20" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="37"/>
+      <c r="E20" s="38"/>
     </row>
     <row r="21" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
     </row>
     <row r="22" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
@@ -1807,8 +1818,8 @@
       <c r="C41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
     </row>
     <row r="42" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
@@ -1817,8 +1828,8 @@
       <c r="C42" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
       <c r="H42" s="20"/>
@@ -1859,8 +1870,8 @@
       <c r="C43" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
       <c r="H43" s="20"/>
@@ -1900,34 +1911,36 @@
       </c>
     </row>
     <row r="46" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
+      <c r="B46" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
     </row>
     <row r="47" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
     </row>
     <row r="48" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertHyperlinks="0"/>

--- a/documentation/softeng23-26-presentation_v2.xlsx
+++ b/documentation/softeng23-26-presentation_v2.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daphn\Documents\πολυτεχνειο\Μαθήματα\7o εξάμηνο\ΤΛ\Εργασία\NtuaFlix\2o παραδοτέο\NTUAflix\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F31774-217F-4ED8-989E-CADCD9D3F158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ADE921-6BC9-406F-A74A-A2D991666303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{998E27AF-4EE8-5F42-9173-21B426B5D45A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{998E27AF-4EE8-5F42-9173-21B426B5D45A}"/>
   </bookViews>
   <sheets>
     <sheet name="softeng 23" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="168">
   <si>
     <t>ER/JSON</t>
   </si>
@@ -534,6 +534,39 @@
 Για το el20061 γίνονται με το όνομα dionadam
 Για το el20123 γίνονταν στην αρχή με το YourName (φαίνεται στα commits)
 Για το el20189 γίνονται με το όνομα DaphneGeorgiadi</t>
+  </si>
+  <si>
+    <t>Sequence Diagram for Movie Details Page
+Sequence Diagram for Person Details Page
+Sequence Diagram for Use Case 1
+Sequence Diagram for Use Case 2
+Sequence Diagram for Use Case 3</t>
+  </si>
+  <si>
+    <t>State Machine Diagram for Movie Details Page
+State Machine Diagram for Person Details Page
+State Machine Diagram for Use Case 1
+State Machine Diagram for Use Case 2
+State Machine Diagram for Use Case 3</t>
+  </si>
+  <si>
+    <t>Component Diagram</t>
+  </si>
+  <si>
+    <t>Deployment Diagram</t>
+  </si>
+  <si>
+    <t>Entity Relationship Diagram</t>
+  </si>
+  <si>
+    <t>Activity Diagram for Movie Details Page
+Activity Diagram for Person Details Page
+Activity Diagram for Use Case 1
+Activity Diagram for Use Case 2
+Activity Diagram for Use Case 3</t>
+  </si>
+  <si>
+    <t>SRS-SoftEng23-26</t>
   </si>
 </sst>
 </file>
@@ -799,6 +832,35 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -806,36 +868,7 @@
     <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1156,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A22FCA-6CEB-864C-9E7D-F12113288542}">
   <dimension ref="B1:AK50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="97" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="97" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AK25" sqref="AK25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1318,7 +1351,7 @@
         <v>135</v>
       </c>
       <c r="E5" s="14"/>
-      <c r="F5" s="36"/>
+      <c r="F5" s="31"/>
       <c r="G5" s="22" t="str">
         <f>B5</f>
         <v>03120061</v>
@@ -1336,7 +1369,7 @@
         <v>137</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="F6" s="36"/>
+      <c r="F6" s="31"/>
       <c r="G6" s="22" t="str">
         <f t="shared" ref="G6:G10" si="0">B6</f>
         <v>03120189</v>
@@ -1354,7 +1387,7 @@
         <v>139</v>
       </c>
       <c r="E7" s="14"/>
-      <c r="F7" s="36"/>
+      <c r="F7" s="31"/>
       <c r="G7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>03120098</v>
@@ -1372,7 +1405,7 @@
         <v>141</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="36"/>
+      <c r="F8" s="31"/>
       <c r="G8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>03120227</v>
@@ -1390,7 +1423,7 @@
         <v>143</v>
       </c>
       <c r="E9" s="14"/>
-      <c r="F9" s="36"/>
+      <c r="F9" s="31"/>
       <c r="G9" s="22" t="str">
         <f t="shared" si="0"/>
         <v>03120123</v>
@@ -1408,7 +1441,7 @@
         <v>133</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="F10" s="36"/>
+      <c r="F10" s="31"/>
       <c r="G10" s="22" t="str">
         <f t="shared" si="0"/>
         <v>03120890</v>
@@ -1418,18 +1451,18 @@
     <row r="11" spans="2:37" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="F11" s="36"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="2:37" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
       <c r="AK12" s="25" t="s">
         <v>121</v>
       </c>
@@ -1438,12 +1471,12 @@
       <c r="B13" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
       <c r="AK13" s="25" t="s">
         <v>122</v>
       </c>
@@ -1452,12 +1485,12 @@
       <c r="B14" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
       <c r="AK14" s="25" t="s">
         <v>127</v>
       </c>
@@ -1472,11 +1505,11 @@
       <c r="B16" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="21"/>
       <c r="AK16" s="25" t="s">
         <v>123</v>
@@ -1486,11 +1519,11 @@
       <c r="B17" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="21"/>
       <c r="AK17" s="25" t="s">
         <v>124</v>
@@ -1500,11 +1533,11 @@
       <c r="B18" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="21"/>
       <c r="AK18" s="25" t="s">
         <v>125</v>
@@ -1518,96 +1551,96 @@
       <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="38"/>
+      <c r="E20" s="33"/>
     </row>
     <row r="21" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+        <v>167</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
     </row>
     <row r="23" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-    </row>
-    <row r="24" spans="2:37" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+    </row>
+    <row r="24" spans="2:37" ht="109.2" x14ac:dyDescent="0.3">
       <c r="B24" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-    </row>
-    <row r="25" spans="2:37" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+    </row>
+    <row r="25" spans="2:37" ht="156" x14ac:dyDescent="0.3">
       <c r="B25" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-    </row>
-    <row r="26" spans="2:37" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+    </row>
+    <row r="26" spans="2:37" ht="109.2" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+        <v>161</v>
+      </c>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
     </row>
     <row r="27" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+        <v>164</v>
+      </c>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
     </row>
     <row r="28" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B28" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
+        <v>163</v>
+      </c>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
     </row>
     <row r="29" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B29" s="30" t="s">
+      <c r="B29" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
     </row>
     <row r="30" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B30" s="9" t="s">
@@ -1616,8 +1649,8 @@
       <c r="C30" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
     </row>
     <row r="31" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B31" s="9" t="s">
@@ -1636,8 +1669,8 @@
       <c r="C32" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
     </row>
     <row r="33" spans="2:37" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="s">
@@ -1646,8 +1679,8 @@
       <c r="C33" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
       <c r="H33" s="20"/>
@@ -1688,8 +1721,8 @@
       <c r="C34" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
@@ -1730,8 +1763,8 @@
       <c r="C35" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
       <c r="H35" s="20"/>
@@ -1766,12 +1799,12 @@
       <c r="AK35" s="4"/>
     </row>
     <row r="36" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
     </row>
     <row r="37" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B37" s="9" t="s">
@@ -1780,8 +1813,8 @@
       <c r="C37" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
     </row>
     <row r="38" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B38" s="9" t="s">
@@ -1790,8 +1823,8 @@
       <c r="C38" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
     </row>
     <row r="39" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B39" s="9" t="s">
@@ -1800,16 +1833,16 @@
       <c r="C39" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
     </row>
     <row r="40" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B40" s="30" t="s">
+      <c r="B40" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
     </row>
     <row r="41" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B41" s="9" t="s">
@@ -1818,8 +1851,8 @@
       <c r="C41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
     </row>
     <row r="42" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
@@ -1828,8 +1861,8 @@
       <c r="C42" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
       <c r="H42" s="20"/>
@@ -1870,8 +1903,8 @@
       <c r="C43" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
       <c r="H43" s="20"/>
@@ -1911,55 +1944,40 @@
       </c>
     </row>
     <row r="46" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
     </row>
     <row r="47" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
     </row>
     <row r="48" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertHyperlinks="0"/>
   <mergeCells count="31">
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F5:F14"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="B46:E50"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="D37:E37"/>
@@ -1976,6 +1994,21 @@
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B46:E50"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F5:F14"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">

--- a/documentation/softeng23-26-presentation_v2.xlsx
+++ b/documentation/softeng23-26-presentation_v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daphn\Documents\πολυτεχνειο\Μαθήματα\7o εξάμηνο\ΤΛ\Εργασία\NtuaFlix\2o παραδοτέο\NTUAflix\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ADE921-6BC9-406F-A74A-A2D991666303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A940D95-0616-4FB6-9847-E196C9E37D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{998E27AF-4EE8-5F42-9173-21B426B5D45A}"/>
@@ -529,13 +529,6 @@
     <t>from github</t>
   </si>
   <si>
-    <t>Στο github στους "Contributors" σε τρια μέλη της ομάδας, αντί να φαίνεται το elXXX ως όνομα, 
-φαίνεται το όνομα του άλλου προφίλ ένω είναι σωστα συνδεδεμένοι με το ιδρυματικό.
-Για το el20061 γίνονται με το όνομα dionadam
-Για το el20123 γίνονταν στην αρχή με το YourName (φαίνεται στα commits)
-Για το el20189 γίνονται με το όνομα DaphneGeorgiadi</t>
-  </si>
-  <si>
     <t>Sequence Diagram for Movie Details Page
 Sequence Diagram for Person Details Page
 Sequence Diagram for Use Case 1
@@ -567,6 +560,13 @@
   </si>
   <si>
     <t>SRS-SoftEng23-26</t>
+  </si>
+  <si>
+    <t>Σημείωση: Στο zip αρχείο που παραδώσαμε δεν έχει συμπεριληφθεί ο φάκελος node_modules καθώς θα 
+κατέβει μετά το τρέξιμο της εντολής npm install
+Στο github στους "Contributors" σε τρια μέλη της ομάδας, αντί να φαίνεται το elXXX ως όνομα, 
+φαίνεται το όνομα του άλλου προφίλ ένω είναι σωστα συνδεδεμένοι με το ιδρυματικό.
+el20061 με το dionadam, el20123 με το YourName (φαίνεται στα commits), el20189  με το DaphneGeorgiadi</t>
   </si>
 </sst>
 </file>
@@ -832,6 +832,25 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -850,25 +869,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1189,8 +1189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A22FCA-6CEB-864C-9E7D-F12113288542}">
   <dimension ref="B1:AK50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="97" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AK25" sqref="AK25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="97" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1351,7 +1351,7 @@
         <v>135</v>
       </c>
       <c r="E5" s="14"/>
-      <c r="F5" s="31"/>
+      <c r="F5" s="36"/>
       <c r="G5" s="22" t="str">
         <f>B5</f>
         <v>03120061</v>
@@ -1369,7 +1369,7 @@
         <v>137</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="F6" s="31"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="22" t="str">
         <f t="shared" ref="G6:G10" si="0">B6</f>
         <v>03120189</v>
@@ -1387,7 +1387,7 @@
         <v>139</v>
       </c>
       <c r="E7" s="14"/>
-      <c r="F7" s="31"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>03120098</v>
@@ -1405,7 +1405,7 @@
         <v>141</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="31"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>03120227</v>
@@ -1423,7 +1423,7 @@
         <v>143</v>
       </c>
       <c r="E9" s="14"/>
-      <c r="F9" s="31"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="22" t="str">
         <f t="shared" si="0"/>
         <v>03120123</v>
@@ -1441,7 +1441,7 @@
         <v>133</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="F10" s="31"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="22" t="str">
         <f t="shared" si="0"/>
         <v>03120890</v>
@@ -1451,18 +1451,18 @@
     <row r="11" spans="2:37" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="F11" s="31"/>
+      <c r="F11" s="36"/>
     </row>
     <row r="12" spans="2:37" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
       <c r="AK12" s="25" t="s">
         <v>121</v>
       </c>
@@ -1471,12 +1471,12 @@
       <c r="B13" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
       <c r="AK13" s="25" t="s">
         <v>122</v>
       </c>
@@ -1485,12 +1485,12 @@
       <c r="B14" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
       <c r="AK14" s="25" t="s">
         <v>127</v>
       </c>
@@ -1505,11 +1505,11 @@
       <c r="B16" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
       <c r="F16" s="21"/>
       <c r="AK16" s="25" t="s">
         <v>123</v>
@@ -1519,11 +1519,11 @@
       <c r="B17" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
       <c r="F17" s="21"/>
       <c r="AK17" s="25" t="s">
         <v>124</v>
@@ -1533,11 +1533,11 @@
       <c r="B18" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
       <c r="F18" s="21"/>
       <c r="AK18" s="25" t="s">
         <v>125</v>
@@ -1551,96 +1551,96 @@
       <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="33"/>
+      <c r="E20" s="38"/>
     </row>
     <row r="21" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
     </row>
     <row r="22" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B22" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
+        <v>166</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
     </row>
     <row r="23" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
+        <v>164</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
     </row>
     <row r="24" spans="2:37" ht="109.2" x14ac:dyDescent="0.3">
       <c r="B24" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
+        <v>165</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
     </row>
     <row r="25" spans="2:37" ht="156" x14ac:dyDescent="0.3">
       <c r="B25" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
+        <v>161</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
     </row>
     <row r="26" spans="2:37" ht="109.2" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
+        <v>160</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
     </row>
     <row r="27" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
+        <v>163</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
     </row>
     <row r="28" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B28" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
+        <v>162</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
     </row>
     <row r="29" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B29" s="38" t="s">
+      <c r="B29" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
     </row>
     <row r="30" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B30" s="9" t="s">
@@ -1649,8 +1649,8 @@
       <c r="C30" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
     </row>
     <row r="31" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B31" s="9" t="s">
@@ -1669,8 +1669,8 @@
       <c r="C32" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
     </row>
     <row r="33" spans="2:37" s="10" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B33" s="9" t="s">
@@ -1679,8 +1679,8 @@
       <c r="C33" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
       <c r="H33" s="20"/>
@@ -1721,8 +1721,8 @@
       <c r="C34" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
@@ -1763,8 +1763,8 @@
       <c r="C35" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
       <c r="H35" s="20"/>
@@ -1799,12 +1799,12 @@
       <c r="AK35" s="4"/>
     </row>
     <row r="36" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
     </row>
     <row r="37" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B37" s="9" t="s">
@@ -1813,8 +1813,8 @@
       <c r="C37" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
     </row>
     <row r="38" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B38" s="9" t="s">
@@ -1823,8 +1823,8 @@
       <c r="C38" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
     </row>
     <row r="39" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B39" s="9" t="s">
@@ -1833,16 +1833,16 @@
       <c r="C39" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
     </row>
     <row r="40" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B40" s="38" t="s">
+      <c r="B40" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
     </row>
     <row r="41" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B41" s="9" t="s">
@@ -1851,8 +1851,8 @@
       <c r="C41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
     </row>
     <row r="42" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B42" s="9" t="s">
@@ -1861,8 +1861,8 @@
       <c r="C42" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
       <c r="H42" s="20"/>
@@ -1903,8 +1903,8 @@
       <c r="C43" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D43" s="39"/>
-      <c r="E43" s="39"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
       <c r="H43" s="20"/>
@@ -1944,40 +1944,55 @@
       </c>
     </row>
     <row r="46" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B46" s="35" t="s">
-        <v>160</v>
-      </c>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
+      <c r="B46" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
     </row>
     <row r="47" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
     </row>
     <row r="48" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="36"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="36"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertHyperlinks="0"/>
   <mergeCells count="31">
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F5:F14"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="B46:E50"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="D37:E37"/>
@@ -1994,21 +2009,6 @@
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B46:E50"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F5:F14"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">

--- a/documentation/softeng23-26-presentation_v2.xlsx
+++ b/documentation/softeng23-26-presentation_v2.xlsx
@@ -5,13 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daphn\Documents\πολυτεχνειο\Μαθήματα\7o εξάμηνο\ΤΛ\Εργασία\NtuaFlix\2o παραδοτέο\NTUAflix\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koust\IdeaProjects\NTUAflix\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A940D95-0616-4FB6-9847-E196C9E37D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF96127-A211-49C3-B0EB-47B7E39C8C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{998E27AF-4EE8-5F42-9173-21B426B5D45A}"/>
+    <workbookView xWindow="3120" yWindow="1200" windowWidth="21600" windowHeight="13155" xr2:uid="{998E27AF-4EE8-5F42-9173-21B426B5D45A}"/>
   </bookViews>
   <sheets>
     <sheet name="softeng 23" sheetId="1" r:id="rId1"/>
@@ -33,15 +33,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -566,7 +557,7 @@
 κατέβει μετά το τρέξιμο της εντολής npm install
 Στο github στους "Contributors" σε τρια μέλη της ομάδας, αντί να φαίνεται το elXXX ως όνομα, 
 φαίνεται το όνομα του άλλου προφίλ ένω είναι σωστα συνδεδεμένοι με το ιδρυματικό.
-el20061 με το dionadam, el20123 με το YourName (φαίνεται στα commits), el20189  με το DaphneGeorgiadi</t>
+el20061 με το dionadam, el20123 με το YourName (φαίνεται στα commits), el20189  με DaphneGeorgiadi</t>
   </si>
 </sst>
 </file>
@@ -832,6 +823,35 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -839,36 +859,7 @@
     <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -891,9 +882,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -931,7 +922,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1037,7 +1028,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1179,7 +1170,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1189,51 +1180,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1A22FCA-6CEB-864C-9E7D-F12113288542}">
   <dimension ref="B1:AK50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScale="97" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" zoomScale="97" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:E50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.796875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="2.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="23" style="3" customWidth="1"/>
     <col min="3" max="3" width="33" style="3" customWidth="1"/>
     <col min="4" max="4" width="22" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="25.69921875" style="19" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="12.69921875" style="19" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="3.69921875" style="20" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="25.75" style="19" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="19" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="3.75" style="20" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="3" style="20" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="3.796875" style="20" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="3.75" style="20" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="5.5" style="20" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="8.296875" style="20" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="8.25" style="20" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="4" style="20" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="5.5" style="20" hidden="1" customWidth="1"/>
     <col min="16" max="17" width="4.5" style="20" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="4.69921875" style="20" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="4.75" style="20" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="3" style="20" hidden="1" customWidth="1"/>
-    <col min="20" max="25" width="5.296875" style="20" hidden="1" customWidth="1"/>
+    <col min="20" max="25" width="5.25" style="20" hidden="1" customWidth="1"/>
     <col min="26" max="26" width="6.5" style="20" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="3.19921875" style="20" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="5.796875" style="20" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="6.296875" style="20" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="7.19921875" style="20" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="7.296875" style="20" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="6.296875" style="20" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="3.25" style="20" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="5.75" style="20" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="6.25" style="20" hidden="1" customWidth="1"/>
+    <col min="30" max="31" width="7.25" style="20" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="6.25" style="20" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="3.5" style="20" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="2.69921875" style="20" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="2.75" style="20" hidden="1" customWidth="1"/>
     <col min="35" max="36" width="0" style="19" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="62.69921875" style="4" customWidth="1"/>
-    <col min="38" max="16384" width="10.796875" style="4"/>
+    <col min="37" max="37" width="62.75" style="4" customWidth="1"/>
+    <col min="38" max="16384" width="10.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:37" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:37" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="27" t="s">
         <v>88</v>
       </c>
       <c r="C1" s="26"/>
     </row>
-    <row r="2" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:37" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="28" t="s">
         <v>126</v>
       </c>
@@ -1241,11 +1231,11 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="2:37" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:37" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
         <v>116</v>
       </c>
@@ -1340,7 +1330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:37" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:37" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
         <v>145</v>
       </c>
@@ -1351,14 +1341,14 @@
         <v>135</v>
       </c>
       <c r="E5" s="14"/>
-      <c r="F5" s="36"/>
+      <c r="F5" s="31"/>
       <c r="G5" s="22" t="str">
         <f>B5</f>
         <v>03120061</v>
       </c>
       <c r="AK5" s="14"/>
     </row>
-    <row r="6" spans="2:37" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:37" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>146</v>
       </c>
@@ -1369,14 +1359,14 @@
         <v>137</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="F6" s="36"/>
+      <c r="F6" s="31"/>
       <c r="G6" s="22" t="str">
         <f t="shared" ref="G6:G10" si="0">B6</f>
         <v>03120189</v>
       </c>
       <c r="AK6" s="14"/>
     </row>
-    <row r="7" spans="2:37" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:37" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>144</v>
       </c>
@@ -1387,14 +1377,14 @@
         <v>139</v>
       </c>
       <c r="E7" s="14"/>
-      <c r="F7" s="36"/>
+      <c r="F7" s="31"/>
       <c r="G7" s="22" t="str">
         <f t="shared" si="0"/>
         <v>03120098</v>
       </c>
       <c r="AK7" s="14"/>
     </row>
-    <row r="8" spans="2:37" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:37" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
         <v>148</v>
       </c>
@@ -1405,14 +1395,14 @@
         <v>141</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="36"/>
+      <c r="F8" s="31"/>
       <c r="G8" s="22" t="str">
         <f t="shared" si="0"/>
         <v>03120227</v>
       </c>
       <c r="AK8" s="14"/>
     </row>
-    <row r="9" spans="2:37" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:37" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
         <v>147</v>
       </c>
@@ -1423,14 +1413,14 @@
         <v>143</v>
       </c>
       <c r="E9" s="14"/>
-      <c r="F9" s="36"/>
+      <c r="F9" s="31"/>
       <c r="G9" s="22" t="str">
         <f t="shared" si="0"/>
         <v>03120123</v>
       </c>
       <c r="AK9" s="14"/>
     </row>
-    <row r="10" spans="2:37" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:37" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
         <v>128</v>
       </c>
@@ -1441,218 +1431,218 @@
         <v>133</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="F10" s="36"/>
+      <c r="F10" s="31"/>
       <c r="G10" s="22" t="str">
         <f t="shared" si="0"/>
         <v>03120890</v>
       </c>
       <c r="AK10" s="14"/>
     </row>
-    <row r="11" spans="2:37" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:37" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="F11" s="36"/>
-    </row>
-    <row r="12" spans="2:37" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F11" s="31"/>
+    </row>
+    <row r="12" spans="2:37" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
       <c r="AK12" s="25" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="2:37" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:37" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="29" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="36"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
       <c r="AK13" s="25" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="2:37" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:37" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
       <c r="AK14" s="25" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="2:37" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:37" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="F15" s="21"/>
       <c r="AK15" s="25"/>
     </row>
-    <row r="16" spans="2:37" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:37" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="39" t="s">
+      <c r="C16" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="21"/>
       <c r="AK16" s="25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="2:37" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:37" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
       <c r="F17" s="21"/>
       <c r="AK17" s="25" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="2:37" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:37" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
       <c r="F18" s="21"/>
       <c r="AK18" s="25" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="2:37" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:37" ht="10.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:37" x14ac:dyDescent="0.25">
       <c r="C20" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="38"/>
-    </row>
-    <row r="21" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B21" s="37" t="s">
+      <c r="E20" s="33"/>
+    </row>
+    <row r="21" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B21" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-    </row>
-    <row r="22" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+    </row>
+    <row r="22" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-    </row>
-    <row r="23" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+    </row>
+    <row r="23" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-    </row>
-    <row r="24" spans="2:37" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+    </row>
+    <row r="24" spans="2:37" ht="110.25" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-    </row>
-    <row r="25" spans="2:37" ht="156" x14ac:dyDescent="0.3">
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+    </row>
+    <row r="25" spans="2:37" ht="110.25" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-    </row>
-    <row r="26" spans="2:37" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+    </row>
+    <row r="26" spans="2:37" ht="110.25" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-    </row>
-    <row r="27" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+    </row>
+    <row r="27" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-    </row>
-    <row r="28" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+    </row>
+    <row r="28" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-    </row>
-    <row r="29" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B29" s="30" t="s">
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+    </row>
+    <row r="29" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B29" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-    </row>
-    <row r="30" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+    </row>
+    <row r="30" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-    </row>
-    <row r="31" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+    </row>
+    <row r="31" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
         <v>27</v>
       </c>
@@ -1662,25 +1652,25 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B32" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-    </row>
-    <row r="33" spans="2:37" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+    </row>
+    <row r="33" spans="2:37" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
       <c r="H33" s="20"/>
@@ -1714,15 +1704,15 @@
       <c r="AJ33" s="19"/>
       <c r="AK33" s="4"/>
     </row>
-    <row r="34" spans="2:37" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:37" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
       <c r="H34" s="20"/>
@@ -1756,15 +1746,15 @@
       <c r="AJ34" s="19"/>
       <c r="AK34" s="4"/>
     </row>
-    <row r="35" spans="2:37" s="11" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:37" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
       <c r="H35" s="20"/>
@@ -1798,71 +1788,71 @@
       <c r="AJ35" s="19"/>
       <c r="AK35" s="4"/>
     </row>
-    <row r="36" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B36" s="30" t="s">
+    <row r="36" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B36" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-    </row>
-    <row r="37" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+    </row>
+    <row r="37" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B37" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-    </row>
-    <row r="38" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+    </row>
+    <row r="38" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-    </row>
-    <row r="39" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+    </row>
+    <row r="39" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B39" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-    </row>
-    <row r="40" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B40" s="30" t="s">
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+    </row>
+    <row r="40" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B40" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-    </row>
-    <row r="41" spans="2:37" x14ac:dyDescent="0.3">
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+    </row>
+    <row r="41" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B41" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-    </row>
-    <row r="42" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+    </row>
+    <row r="42" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
       <c r="H42" s="20"/>
@@ -1896,15 +1886,15 @@
       <c r="AJ42" s="23"/>
       <c r="AK42" s="24"/>
     </row>
-    <row r="43" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
       <c r="H43" s="20"/>
@@ -1938,61 +1928,46 @@
       <c r="AJ43" s="23"/>
       <c r="AK43" s="24"/>
     </row>
-    <row r="45" spans="2:37" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:37" x14ac:dyDescent="0.25">
       <c r="B45" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B46" s="31" t="s">
+    <row r="46" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B46" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
-    </row>
-    <row r="47" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-    </row>
-    <row r="48" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B48" s="32"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="32"/>
-      <c r="E48" s="32"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="32"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="32"/>
-      <c r="E49" s="32"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="32"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="32"/>
-      <c r="E50" s="32"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+    </row>
+    <row r="47" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+    </row>
+    <row r="48" spans="2:37" x14ac:dyDescent="0.25">
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="36"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="36"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertHyperlinks="0"/>
   <mergeCells count="31">
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F5:F14"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="B46:E50"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
     <mergeCell ref="D35:E35"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="D37:E37"/>
@@ -2009,6 +1984,21 @@
     <mergeCell ref="D27:E27"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B46:E50"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F5:F14"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
@@ -2032,13 +2022,13 @@
       <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -2046,7 +2036,7 @@
         <v>45338</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -2054,292 +2044,292 @@
         <v>45339</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>87</v>
       </c>
